--- a/config/Master_Test_Template_june.xlsx
+++ b/config/Master_Test_Template_june.xlsx
@@ -11,14 +11,14 @@
     <sheet name="data_quality_checks" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$U$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$V$26</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="91">
   <si>
     <t>csv</t>
   </si>
@@ -279,18 +279,37 @@
   </si>
   <si>
     <t>C:\Users\india\PycharmProjects\Framework_JUNE_rohit1\files\Contact_info_target.csv</t>
+  </si>
+  <si>
+    <t>json_multiline</t>
+  </si>
+  <si>
+    <t>C:\Users\india\PycharmProjects\Framework_JUNE_rohit1\files\sample1.json</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>C:\Users\india\PycharmProjects\Framework_JUNE_rohit1\files\singleline.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -479,68 +498,71 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -553,25 +575,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -849,13 +871,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -867,88 +889,92 @@
     <col min="5" max="5" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="58.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7109375" style="2"/>
+    <col min="8" max="8" width="24.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="49.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="58.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="R1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -967,53 +993,56 @@
       <c r="F2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="13" t="s">
+      <c r="N2" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="Q2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>27</v>
+      <c r="R2" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="2">
-        <v>0</v>
+      <c r="T2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
@@ -1021,10 +1050,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
@@ -1032,53 +1061,56 @@
       <c r="F3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>81</v>
+      <c r="G3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="17" t="b">
+        <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="Q3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>27</v>
+      <c r="R3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="2">
-        <v>0</v>
+      <c r="T3" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1100,50 +1132,53 @@
       <c r="G4" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="9" t="s">
+      <c r="J4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="Q4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="2">
-        <v>0</v>
+      <c r="T4" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
@@ -1165,50 +1200,53 @@
       <c r="G5" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="9" t="s">
+      <c r="J5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="Q5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="2">
-        <v>0</v>
+      <c r="T5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1230,50 +1268,53 @@
       <c r="G6" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="9" t="s">
+      <c r="J6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="Q6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="2">
-        <v>0</v>
+      <c r="T6" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="15" t="s">
         <v>36</v>
       </c>
@@ -1295,50 +1336,53 @@
       <c r="G7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="9" t="s">
+      <c r="J7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="Q7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="2">
-        <v>0</v>
+      <c r="T7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1360,50 +1404,53 @@
       <c r="G8" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="9" t="s">
+      <c r="J8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="Q8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="2">
-        <v>0</v>
+      <c r="T8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="25" t="s">
         <v>50</v>
       </c>
@@ -1425,50 +1472,51 @@
       <c r="G9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="9" t="s">
+      <c r="J9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="Q9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="2">
-        <v>0</v>
+      <c r="T9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="25" t="s">
         <v>51</v>
       </c>
@@ -1490,50 +1538,51 @@
       <c r="G10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="9" t="s">
+      <c r="J10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="25" t="s">
+      <c r="Q10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T10" s="2">
-        <v>0</v>
+      <c r="T10" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="25" t="s">
         <v>52</v>
       </c>
@@ -1555,50 +1604,51 @@
       <c r="G11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="9" t="s">
+      <c r="J11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="25" t="s">
+      <c r="Q11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="2">
-        <v>0</v>
+      <c r="T11" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="25" t="s">
         <v>53</v>
       </c>
@@ -1620,50 +1670,51 @@
       <c r="G12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="9" t="s">
+      <c r="J12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="25" t="s">
+      <c r="Q12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T12" s="2">
-        <v>0</v>
+      <c r="T12" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="25" t="s">
         <v>54</v>
       </c>
@@ -1685,50 +1736,51 @@
       <c r="G13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="9" t="s">
+      <c r="J13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P13" s="25" t="s">
+      <c r="Q13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T13" s="2">
-        <v>0</v>
+      <c r="T13" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="25" t="s">
         <v>55</v>
       </c>
@@ -1750,50 +1802,51 @@
       <c r="G14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="9" t="s">
+      <c r="J14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P14" s="25" t="s">
+      <c r="Q14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R14" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T14" s="2">
-        <v>0</v>
+      <c r="T14" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="25" t="s">
         <v>57</v>
       </c>
@@ -1815,50 +1868,51 @@
       <c r="G15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="9" t="s">
+      <c r="J15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P15" s="25" t="s">
+      <c r="Q15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T15" s="2">
-        <v>0</v>
+      <c r="T15" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="25" t="s">
         <v>58</v>
       </c>
@@ -1880,50 +1934,51 @@
       <c r="G16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="3"/>
+      <c r="I16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="9" t="s">
+      <c r="J16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="13" t="s">
+      <c r="O16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="25" t="s">
+      <c r="Q16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T16" s="2">
-        <v>0</v>
+      <c r="T16" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="25" t="s">
         <v>59</v>
       </c>
@@ -1945,50 +2000,51 @@
       <c r="G17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="25"/>
+      <c r="I17" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="25" t="s">
+      <c r="J17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="25" t="s">
+      <c r="O17" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R17" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T17" s="2">
-        <v>0</v>
+      <c r="T17" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="25" t="s">
         <v>63</v>
       </c>
@@ -2010,50 +2066,51 @@
       <c r="G18" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="25"/>
+      <c r="I18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="25" t="s">
+      <c r="J18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="P18" s="25" t="s">
+      <c r="O18" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T18" s="2">
-        <v>0</v>
+      <c r="T18" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="25" t="s">
         <v>64</v>
       </c>
@@ -2075,50 +2132,51 @@
       <c r="G19" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="25"/>
+      <c r="I19" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="25" t="s">
+      <c r="J19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N19" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="25" t="s">
+      <c r="O19" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="2">
-        <v>0</v>
+      <c r="T19" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="25" t="s">
         <v>65</v>
       </c>
@@ -2140,50 +2198,51 @@
       <c r="G20" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="25"/>
+      <c r="I20" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="25" t="s">
+      <c r="J20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N20" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O20" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="25" t="s">
+      <c r="O20" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R20" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T20" s="2">
-        <v>0</v>
+      <c r="T20" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="25" t="s">
         <v>66</v>
       </c>
@@ -2205,50 +2264,51 @@
       <c r="G21" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="25"/>
+      <c r="I21" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="25" t="s">
+      <c r="J21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N21" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21" s="25" t="s">
+      <c r="O21" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R21" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="2">
-        <v>0</v>
+      <c r="T21" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="25" t="s">
         <v>67</v>
       </c>
@@ -2270,50 +2330,51 @@
       <c r="G22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="25"/>
+      <c r="I22" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="25" t="s">
+      <c r="J22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N22" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O22" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="P22" s="25" t="s">
+      <c r="O22" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R22" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T22" s="2">
-        <v>0</v>
+      <c r="T22" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="25" t="s">
         <v>68</v>
       </c>
@@ -2335,50 +2396,51 @@
       <c r="G23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="25"/>
+      <c r="I23" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="25" t="s">
+      <c r="J23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="25" t="s">
+      <c r="O23" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T23" s="2">
-        <v>0</v>
+      <c r="T23" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="25" t="s">
         <v>69</v>
       </c>
@@ -2400,50 +2462,51 @@
       <c r="G24" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="25"/>
+      <c r="I24" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="25" t="s">
+      <c r="J24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N24" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="25" t="s">
+      <c r="O24" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T24" s="2">
-        <v>0</v>
+      <c r="T24" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="25" t="s">
         <v>74</v>
       </c>
@@ -2465,50 +2528,51 @@
       <c r="G25" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="25"/>
+      <c r="I25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="25" t="s">
+      <c r="J25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N25" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="25" t="s">
+      <c r="O25" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="S25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="S25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T25" s="2">
-        <v>0</v>
+      <c r="T25" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="25" t="s">
         <v>75</v>
       </c>
@@ -2530,50 +2594,51 @@
       <c r="G26" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="25"/>
+      <c r="I26" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="25" t="s">
+      <c r="J26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N26" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="25" t="s">
+      <c r="O26" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="S26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T26" s="2">
+      <c r="T26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U26" s="2">
         <v>1</v>
       </c>
-      <c r="U26" s="2">
+      <c r="V26" s="2">
         <v>99999999</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:22">
       <c r="A27" s="25" t="s">
         <v>76</v>
       </c>
@@ -2595,50 +2660,51 @@
       <c r="G27" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="25"/>
+      <c r="I27" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="25" t="s">
+      <c r="J27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N27" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="P27" s="25" t="s">
+      <c r="O27" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R27" s="16" t="s">
+      <c r="S27" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="S27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T27" s="2">
+      <c r="T27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U27" s="2">
         <v>19240101</v>
       </c>
-      <c r="U27" s="2">
+      <c r="V27" s="2">
         <v>20240101</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:22">
       <c r="A28" s="25" t="s">
         <v>77</v>
       </c>
@@ -2660,50 +2726,51 @@
       <c r="G28" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="25"/>
+      <c r="I28" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="25" t="s">
+      <c r="J28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="P28" s="25" t="s">
+      <c r="O28" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="S28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="T28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="T28" s="2">
-        <v>0</v>
-      </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="22"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3" t="s">
@@ -2713,18 +2780,19 @@
       <c r="E29" s="3"/>
       <c r="F29" s="17"/>
       <c r="G29" s="21"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="H29" s="21"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="22"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
@@ -2732,18 +2800,19 @@
       <c r="E30" s="3"/>
       <c r="F30" s="17"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="H30" s="21"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="22"/>
       <c r="B31" s="4" t="s">
         <v>31</v>
@@ -2753,18 +2822,19 @@
       <c r="E31" s="3"/>
       <c r="F31" s="17"/>
       <c r="G31" s="21"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="H31" s="21"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="22"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
@@ -2772,18 +2842,19 @@
       <c r="E32" s="3"/>
       <c r="F32" s="17"/>
       <c r="G32" s="21"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="H32" s="21"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="22"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
@@ -2791,18 +2862,19 @@
       <c r="E33" s="3"/>
       <c r="F33" s="17"/>
       <c r="G33" s="21"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="H33" s="21"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="22"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
@@ -2810,24 +2882,25 @@
       <c r="E34" s="3"/>
       <c r="F34" s="17"/>
       <c r="G34" s="21"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="1"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R34">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D16 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D16 J1:J1048576">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D8 D17:D1048576">

--- a/config/Master_Test_Template_june.xlsx
+++ b/config/Master_Test_Template_june.xlsx
@@ -11,14 +11,14 @@
     <sheet name="data_quality_checks" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$V$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$V$29</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="104">
   <si>
     <t>csv</t>
   </si>
@@ -290,19 +290,72 @@
     <t>json</t>
   </si>
   <si>
-    <t>C:\Users\india\PycharmProjects\Framework_JUNE_rohit1\files\singleline.json</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>C:\Users\india\PycharmProjects\Framework_JUNE_rohit1\files\Complex.json</t>
+  </si>
+  <si>
+    <t>parquet</t>
+  </si>
+  <si>
+    <t>C:\Users\india\PycharmProjects\Framework_JUNE_rohit1\files\userdata1.parquet</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>oracle_db</t>
+  </si>
+  <si>
+    <t>C:\Users\india\PycharmProjects\Framework_JUNE_rohit1\transformation_queries\transform.sql</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>C:\Users\india\PycharmProjects\Framework_JUNE_rohit1\transformation_queries\snowflake.sql</t>
+  </si>
+  <si>
+    <t>SAMPLEDB.CONTACT_INFO.contact_info_raw</t>
+  </si>
+  <si>
+    <t>CIFF_11</t>
+  </si>
+  <si>
+    <t>Identifier,Surname,given_name</t>
+  </si>
+  <si>
+    <t>CIFF_13</t>
+  </si>
+  <si>
+    <t>CIFF_12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,102 +551,111 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -871,13 +933,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -907,31 +969,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -940,25 +1002,25 @@
       <c r="K1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>30</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="34" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S1" s="2" t="s">
@@ -979,7 +1041,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>85</v>
@@ -990,16 +1052,16 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="28" t="s">
+      <c r="F2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>86</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -1008,22 +1070,22 @@
       <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="13" t="s">
+      <c r="L2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="22" t="s">
         <v>21</v>
       </c>
       <c r="R2" s="1" t="s">
@@ -1043,59 +1105,59 @@
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="15" t="s">
-        <v>32</v>
+      <c r="A3" s="34" t="s">
+        <v>100</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>88</v>
+      <c r="F3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="13" t="s">
+      <c r="L3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="22" t="s">
         <v>21</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>27</v>
@@ -1111,14 +1173,14 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
+      <c r="A4" s="34" t="s">
+        <v>103</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -1126,40 +1188,40 @@
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>81</v>
+      <c r="F4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="O4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="22" t="s">
         <v>21</v>
       </c>
       <c r="R4" s="1" t="s">
@@ -1179,14 +1241,14 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="15" t="s">
-        <v>34</v>
+      <c r="A5" s="34" t="s">
+        <v>102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
@@ -1194,44 +1256,44 @@
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>81</v>
+      <c r="F5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="O5" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="22" t="s">
         <v>21</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>27</v>
@@ -1247,55 +1309,55 @@
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
+      <c r="A6" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>81</v>
+      <c r="F6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="13" t="s">
         <v>21</v>
       </c>
       <c r="R6" s="1" t="s">
@@ -1315,55 +1377,55 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="15" t="s">
-        <v>36</v>
+      <c r="A7" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="28" t="s">
+      <c r="F7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27" t="s">
         <v>81</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="18" t="s">
+      <c r="K7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="17" t="s">
         <v>20</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="13" t="s">
+      <c r="O7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="13" t="s">
         <v>21</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -1383,55 +1445,55 @@
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="1" t="s">
-        <v>37</v>
+      <c r="A8" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="27" t="s">
         <v>81</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="18" t="s">
+      <c r="K8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="17" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="13" t="s">
+      <c r="O8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" s="13" t="s">
         <v>21</v>
       </c>
       <c r="R8" s="1" t="s">
@@ -1451,53 +1513,55 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="25" t="s">
-        <v>50</v>
+      <c r="A9" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="19" t="s">
-        <v>82</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="24" t="s">
+      <c r="K9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="17" t="s">
         <v>20</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="13" t="s">
+      <c r="O9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="Q9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="R9" s="1" t="s">
@@ -1517,53 +1581,55 @@
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="25" t="s">
-        <v>51</v>
+      <c r="A10" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="19" t="s">
-        <v>82</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="24" t="s">
+      <c r="K10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="17" t="s">
         <v>20</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="13" t="s">
+      <c r="O10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="25" t="s">
+      <c r="Q10" s="13" t="s">
         <v>21</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -1583,53 +1649,55 @@
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="25" t="s">
-        <v>52</v>
+      <c r="A11" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="19" t="s">
-        <v>82</v>
-      </c>
       <c r="J11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="24" t="s">
+      <c r="K11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="17" t="s">
         <v>20</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="13" t="s">
+      <c r="O11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="Q11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="R11" s="1" t="s">
@@ -1649,53 +1717,53 @@
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="25" t="s">
-        <v>53</v>
+      <c r="A12" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>47</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="18" t="s">
         <v>82</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="24" t="s">
+      <c r="K12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="13" t="s">
+      <c r="O12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="25" t="s">
+      <c r="Q12" s="24" t="s">
         <v>21</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -1715,53 +1783,53 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="25" t="s">
-        <v>54</v>
+      <c r="A13" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="18" t="s">
+      <c r="E13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="18" t="s">
         <v>82</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="24" t="s">
+      <c r="K13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="13" t="s">
+      <c r="O13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="25" t="s">
+      <c r="Q13" s="24" t="s">
         <v>21</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -1781,53 +1849,53 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="25" t="s">
-        <v>55</v>
+      <c r="A14" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>81</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="18" t="s">
         <v>82</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="24" t="s">
+      <c r="K14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="13" t="s">
+      <c r="O14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" s="25" t="s">
+      <c r="Q14" s="24" t="s">
         <v>21</v>
       </c>
       <c r="R14" s="1" t="s">
@@ -1847,53 +1915,53 @@
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="25" t="s">
-        <v>57</v>
+      <c r="A15" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="E15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="18" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="24" t="s">
+      <c r="K15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="13" t="s">
+      <c r="O15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="25" t="s">
+      <c r="Q15" s="24" t="s">
         <v>21</v>
       </c>
       <c r="R15" s="1" t="s">
@@ -1913,53 +1981,53 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="25" t="s">
-        <v>58</v>
+      <c r="A16" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="18" t="s">
+      <c r="E16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="18" t="s">
         <v>82</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="24" t="s">
+      <c r="K16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="13" t="s">
+      <c r="O16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="24" t="s">
         <v>21</v>
       </c>
       <c r="R16" s="1" t="s">
@@ -1979,53 +2047,53 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="25" t="s">
-        <v>59</v>
+      <c r="A17" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="19" t="s">
-        <v>61</v>
+      <c r="E17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="25" t="s">
+      <c r="K17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="O17" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="25" t="s">
+      <c r="N17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="24" t="s">
         <v>21</v>
       </c>
       <c r="R17" s="1" t="s">
@@ -2045,53 +2113,53 @@
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="25" t="s">
-        <v>63</v>
+      <c r="A18" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="19" t="s">
-        <v>61</v>
+      <c r="E18" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" s="25" t="s">
+      <c r="K18" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="O18" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q18" s="25" t="s">
+      <c r="N18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="24" t="s">
         <v>21</v>
       </c>
       <c r="R18" s="1" t="s">
@@ -2111,53 +2179,53 @@
       </c>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="25" t="s">
-        <v>64</v>
+      <c r="A19" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="19" t="s">
-        <v>61</v>
+      <c r="E19" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="25" t="s">
+      <c r="K19" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="O19" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="25" t="s">
+      <c r="N19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="24" t="s">
         <v>21</v>
       </c>
       <c r="R19" s="1" t="s">
@@ -2177,11 +2245,11 @@
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="25" t="s">
-        <v>65</v>
+      <c r="A20" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>49</v>
@@ -2189,41 +2257,41 @@
       <c r="D20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="21" t="s">
+      <c r="E20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="19" t="s">
+      <c r="G20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="18" t="s">
         <v>61</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="25" t="s">
+      <c r="K20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="24" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="25" t="s">
+      <c r="N20" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="O20" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="25" t="s">
+      <c r="O20" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="24" t="s">
         <v>21</v>
       </c>
       <c r="R20" s="1" t="s">
@@ -2243,11 +2311,11 @@
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="25" t="s">
-        <v>66</v>
+      <c r="A21" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>49</v>
@@ -2255,41 +2323,41 @@
       <c r="D21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="21" t="s">
+      <c r="E21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="19" t="s">
+      <c r="G21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="18" t="s">
         <v>61</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" s="25" t="s">
+      <c r="K21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="24" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="25" t="s">
+      <c r="N21" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="O21" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="25" t="s">
+      <c r="O21" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="24" t="s">
         <v>21</v>
       </c>
       <c r="R21" s="1" t="s">
@@ -2309,11 +2377,11 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="25" t="s">
-        <v>67</v>
+      <c r="A22" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>49</v>
@@ -2321,41 +2389,41 @@
       <c r="D22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="21" t="s">
+      <c r="E22" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="19" t="s">
+      <c r="G22" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="18" t="s">
         <v>61</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" s="25" t="s">
+      <c r="K22" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="24" t="s">
         <v>20</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="25" t="s">
+      <c r="N22" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="O22" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q22" s="25" t="s">
+      <c r="O22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="24" t="s">
         <v>21</v>
       </c>
       <c r="R22" s="1" t="s">
@@ -2375,11 +2443,11 @@
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="25" t="s">
-        <v>68</v>
+      <c r="A23" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>49</v>
@@ -2387,41 +2455,41 @@
       <c r="D23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="21" t="s">
+      <c r="E23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="19" t="s">
+      <c r="G23" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="18" t="s">
         <v>61</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="25" t="s">
+      <c r="K23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="24" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="25" t="s">
+      <c r="N23" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="O23" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q23" s="25" t="s">
+      <c r="O23" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="24" t="s">
         <v>21</v>
       </c>
       <c r="R23" s="1" t="s">
@@ -2441,11 +2509,11 @@
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="25" t="s">
-        <v>69</v>
+      <c r="A24" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>49</v>
@@ -2453,41 +2521,41 @@
       <c r="D24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="21" t="s">
+      <c r="E24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="19" t="s">
+      <c r="G24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="24"/>
+      <c r="I24" s="18" t="s">
         <v>61</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" s="25" t="s">
+      <c r="K24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="24" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="25" t="s">
+      <c r="N24" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="O24" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q24" s="25" t="s">
+      <c r="O24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="24" t="s">
         <v>21</v>
       </c>
       <c r="R24" s="1" t="s">
@@ -2507,11 +2575,11 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="25" t="s">
-        <v>74</v>
+      <c r="A25" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>49</v>
@@ -2519,48 +2587,48 @@
       <c r="D25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="21" t="s">
+      <c r="E25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="19" t="s">
+      <c r="G25" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="18" t="s">
         <v>61</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="25" t="s">
+      <c r="K25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="24" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="25" t="s">
+      <c r="N25" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="O25" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q25" s="25" t="s">
+      <c r="O25" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="24" t="s">
         <v>21</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="T25" s="2" t="s">
         <v>27</v>
@@ -2573,11 +2641,11 @@
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="25" t="s">
-        <v>75</v>
+      <c r="A26" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>49</v>
@@ -2585,65 +2653,65 @@
       <c r="D26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="21" t="s">
+      <c r="E26" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="19" t="s">
+      <c r="G26" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="18" t="s">
         <v>61</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="25" t="s">
+      <c r="K26" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="24" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="25" t="s">
+      <c r="N26" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="O26" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="25" t="s">
+      <c r="O26" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="24" t="s">
         <v>21</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="T26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="U26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="25" t="s">
-        <v>76</v>
+      <c r="A27" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>49</v>
@@ -2651,65 +2719,65 @@
       <c r="D27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="21" t="s">
+      <c r="E27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="19" t="s">
+      <c r="G27" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="24"/>
+      <c r="I27" s="18" t="s">
         <v>61</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K27" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="25" t="s">
+      <c r="K27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="24" t="s">
         <v>20</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="25" t="s">
+      <c r="N27" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="O27" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P27" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="25" t="s">
+      <c r="O27" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="24" t="s">
         <v>21</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S27" s="16" t="s">
-        <v>78</v>
+      <c r="S27" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="U27" s="2">
-        <v>19240101</v>
+        <v>0</v>
       </c>
       <c r="V27" s="2">
-        <v>20240101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="25" t="s">
-        <v>77</v>
+      <c r="A28" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>49</v>
@@ -2717,197 +2785,398 @@
       <c r="D28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="21" t="s">
+      <c r="E28" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="19" t="s">
+      <c r="G28" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="24"/>
+      <c r="I28" s="18" t="s">
         <v>61</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28" s="25" t="s">
+      <c r="K28" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="24" t="s">
         <v>20</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="25" t="s">
+      <c r="N28" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="O28" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P28" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q28" s="25" t="s">
+      <c r="O28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="24" t="s">
         <v>21</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>48</v>
       </c>
       <c r="S28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="24"/>
+      <c r="I29" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="O29" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q29" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U29" s="2">
+        <v>1</v>
+      </c>
+      <c r="V29" s="2">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="24"/>
+      <c r="I30" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="O30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q30" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S30" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U30" s="2">
+        <v>19240101</v>
+      </c>
+      <c r="V30" s="2">
+        <v>20240101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="24"/>
+      <c r="I31" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="O31" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="T31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U28" s="2">
-        <v>0</v>
-      </c>
-      <c r="V28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29" s="22"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3" t="s">
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="21"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="1"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="22"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31" s="22"/>
-      <c r="B31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="22"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="19"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="18"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="17"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="14"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="13"/>
       <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="22"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="19"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="17"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="14"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="13"/>
       <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="22"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="19"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="18"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="17"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="14"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="13"/>
       <c r="R34" s="1"/>
     </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="21"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="21"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="21"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="1"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R34">
+  <phoneticPr fontId="24" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R37">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D16 J1:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D19 J1:J1048576">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D8 D17:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D1048576 D1 D9:D11">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"count_check,duplicate,null_value_check,uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare,schema_check,name_check,column_range_check,column_value_reference_check"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
+      <formula1>"csv,text,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config/Master_Test_Template_june.xlsx
+++ b/config/Master_Test_Template_june.xlsx
@@ -11,14 +11,14 @@
     <sheet name="data_quality_checks" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$V$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$V$30</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="105">
   <si>
     <t>csv</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>CIFF_12</t>
+  </si>
+  <si>
+    <t>CIFF_14</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -576,25 +579,22 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -610,6 +610,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -622,27 +625,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,6 +653,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -933,13 +939,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -969,31 +975,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1002,25 +1008,25 @@
       <c r="K1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>30</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S1" s="2" t="s">
@@ -1052,16 +1058,16 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>86</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -1070,22 +1076,22 @@
       <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="22" t="s">
+      <c r="L2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" s="21" t="s">
         <v>21</v>
       </c>
       <c r="R2" s="1" t="s">
@@ -1105,7 +1111,7 @@
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>100</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1120,16 +1126,16 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="16" t="s">
+      <c r="F3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>86</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -1138,22 +1144,22 @@
       <c r="K3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="L3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="P3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="22" t="s">
+      <c r="P3" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q3" s="21" t="s">
         <v>21</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -1173,7 +1179,7 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1188,16 +1194,16 @@
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="16" t="s">
+      <c r="F4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>86</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -1206,22 +1212,22 @@
       <c r="K4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="35" t="s">
+      <c r="L4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="P4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="22" t="s">
+      <c r="P4" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4" s="21" t="s">
         <v>21</v>
       </c>
       <c r="R4" s="1" t="s">
@@ -1241,7 +1247,7 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>102</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1256,16 +1262,16 @@
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16" t="s">
+      <c r="F5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>86</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1274,158 +1280,158 @@
       <c r="K5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="35" t="s">
+      <c r="L5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="O6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="14" t="s">
+      <c r="S6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="32" t="s">
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="12" t="s">
+      <c r="K7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -1445,55 +1451,55 @@
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="14" t="s">
-        <v>34</v>
+      <c r="A8" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>81</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="17" t="s">
+      <c r="K8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="16" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="12" t="s">
+      <c r="O8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="12" t="s">
         <v>21</v>
       </c>
       <c r="R8" s="1" t="s">
@@ -1513,55 +1519,55 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
+      <c r="A9" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26" t="s">
         <v>81</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="17" t="s">
+      <c r="K9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="12" t="s">
+      <c r="O9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="R9" s="1" t="s">
@@ -1581,55 +1587,55 @@
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="14" t="s">
-        <v>36</v>
+      <c r="A10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26" t="s">
         <v>81</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="17" t="s">
+      <c r="K10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="12" t="s">
+      <c r="O10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="12" t="s">
         <v>21</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -1649,11 +1655,11 @@
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
+      <c r="A11" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>83</v>
@@ -1664,40 +1670,40 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="20" t="s">
+      <c r="F11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="27" t="s">
+      <c r="H11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26" t="s">
         <v>81</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="17" t="s">
+      <c r="K11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="16" t="s">
         <v>20</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="12" t="s">
+      <c r="O11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="R11" s="1" t="s">
@@ -1717,53 +1723,55 @@
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="24" t="s">
-        <v>50</v>
+      <c r="A12" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="18" t="s">
-        <v>82</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="23" t="s">
+      <c r="K12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="16" t="s">
         <v>20</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="12" t="s">
+      <c r="O12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="Q12" s="12" t="s">
         <v>21</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -1783,53 +1791,53 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="24" t="s">
-        <v>51</v>
+      <c r="A13" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="17" t="s">
         <v>82</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="23" t="s">
+      <c r="K13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="12" t="s">
+      <c r="O13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="24" t="s">
+      <c r="Q13" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -1849,53 +1857,53 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="24" t="s">
-        <v>52</v>
+      <c r="A14" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="17" t="s">
         <v>82</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="23" t="s">
+      <c r="K14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="12" t="s">
+      <c r="O14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" s="24" t="s">
+      <c r="Q14" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R14" s="1" t="s">
@@ -1915,53 +1923,53 @@
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="24" t="s">
-        <v>53</v>
+      <c r="A15" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="17" t="s">
+      <c r="E15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="17" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="23" t="s">
+      <c r="K15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="12" t="s">
+      <c r="O15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="24" t="s">
+      <c r="Q15" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R15" s="1" t="s">
@@ -1981,53 +1989,53 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="24" t="s">
-        <v>54</v>
+      <c r="A16" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="17" t="s">
+      <c r="E16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="17" t="s">
         <v>82</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="23" t="s">
+      <c r="K16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="12" t="s">
+      <c r="O16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="Q16" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R16" s="1" t="s">
@@ -2047,53 +2055,53 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="24" t="s">
-        <v>55</v>
+      <c r="A17" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="17" t="s">
+      <c r="E17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="17" t="s">
         <v>82</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="23" t="s">
+      <c r="K17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="12" t="s">
+      <c r="O17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q17" s="24" t="s">
+      <c r="Q17" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R17" s="1" t="s">
@@ -2113,53 +2121,53 @@
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="24" t="s">
-        <v>57</v>
+      <c r="A18" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="17" t="s">
+      <c r="E18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="17" t="s">
         <v>82</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" s="23" t="s">
+      <c r="K18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P18" s="12" t="s">
+      <c r="O18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q18" s="24" t="s">
+      <c r="Q18" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R18" s="1" t="s">
@@ -2179,53 +2187,53 @@
       </c>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="24" t="s">
-        <v>58</v>
+      <c r="A19" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="17" t="s">
+      <c r="E19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="17" t="s">
         <v>82</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="23" t="s">
+      <c r="K19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="12" t="s">
+      <c r="O19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q19" s="24" t="s">
+      <c r="Q19" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R19" s="1" t="s">
@@ -2245,53 +2253,53 @@
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="24" t="s">
-        <v>59</v>
+      <c r="A20" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="18" t="s">
-        <v>61</v>
+      <c r="E20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="24" t="s">
+      <c r="K20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="O20" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="24" t="s">
+      <c r="N20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R20" s="1" t="s">
@@ -2311,11 +2319,11 @@
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="24" t="s">
-        <v>63</v>
+      <c r="A21" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>49</v>
@@ -2323,41 +2331,41 @@
       <c r="D21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="20" t="s">
+      <c r="E21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="18" t="s">
+      <c r="G21" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="17" t="s">
         <v>61</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" s="24" t="s">
+      <c r="K21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="24" t="s">
+      <c r="N21" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O21" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="24" t="s">
+      <c r="O21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R21" s="1" t="s">
@@ -2377,11 +2385,11 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="24" t="s">
-        <v>64</v>
+      <c r="A22" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>49</v>
@@ -2389,41 +2397,41 @@
       <c r="D22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="20" t="s">
+      <c r="E22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="18" t="s">
+      <c r="G22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="17" t="s">
         <v>61</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" s="24" t="s">
+      <c r="K22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="24" t="s">
+      <c r="N22" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O22" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P22" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q22" s="24" t="s">
+      <c r="O22" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R22" s="1" t="s">
@@ -2443,11 +2451,11 @@
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="24" t="s">
-        <v>65</v>
+      <c r="A23" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>49</v>
@@ -2455,41 +2463,41 @@
       <c r="D23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="20" t="s">
+      <c r="E23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="18" t="s">
+      <c r="G23" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="17" t="s">
         <v>61</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="24" t="s">
+      <c r="K23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="24" t="s">
+      <c r="N23" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O23" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q23" s="24" t="s">
+      <c r="O23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R23" s="1" t="s">
@@ -2509,11 +2517,11 @@
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="24" t="s">
-        <v>66</v>
+      <c r="A24" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>49</v>
@@ -2521,41 +2529,41 @@
       <c r="D24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="20" t="s">
+      <c r="E24" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="18" t="s">
+      <c r="G24" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="17" t="s">
         <v>61</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" s="24" t="s">
+      <c r="K24" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="24" t="s">
+      <c r="N24" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O24" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q24" s="24" t="s">
+      <c r="O24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R24" s="1" t="s">
@@ -2575,11 +2583,11 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="24" t="s">
-        <v>67</v>
+      <c r="A25" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>49</v>
@@ -2587,41 +2595,41 @@
       <c r="D25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="20" t="s">
+      <c r="E25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="18" t="s">
+      <c r="G25" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="17" t="s">
         <v>61</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="24" t="s">
+      <c r="K25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="24" t="s">
+      <c r="N25" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O25" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q25" s="24" t="s">
+      <c r="O25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R25" s="1" t="s">
@@ -2641,11 +2649,11 @@
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="24" t="s">
-        <v>68</v>
+      <c r="A26" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>49</v>
@@ -2653,41 +2661,41 @@
       <c r="D26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="20" t="s">
+      <c r="E26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="18" t="s">
+      <c r="G26" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="17" t="s">
         <v>61</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="24" t="s">
+      <c r="K26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="24" t="s">
+      <c r="N26" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O26" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="24" t="s">
+      <c r="O26" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R26" s="1" t="s">
@@ -2707,11 +2715,11 @@
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="24" t="s">
-        <v>69</v>
+      <c r="A27" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>49</v>
@@ -2719,41 +2727,41 @@
       <c r="D27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="20" t="s">
+      <c r="E27" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="18" t="s">
+      <c r="G27" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="23"/>
+      <c r="I27" s="17" t="s">
         <v>61</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K27" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="24" t="s">
+      <c r="K27" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="24" t="s">
+      <c r="N27" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O27" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P27" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="24" t="s">
+      <c r="O27" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R27" s="1" t="s">
@@ -2773,11 +2781,11 @@
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="24" t="s">
-        <v>74</v>
+      <c r="A28" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>49</v>
@@ -2785,48 +2793,48 @@
       <c r="D28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="20" t="s">
+      <c r="E28" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="18" t="s">
+      <c r="G28" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="17" t="s">
         <v>61</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28" s="24" t="s">
+      <c r="K28" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="24" t="s">
+      <c r="N28" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O28" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P28" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q28" s="24" t="s">
+      <c r="O28" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>48</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>27</v>
@@ -2839,11 +2847,11 @@
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="24" t="s">
-        <v>75</v>
+      <c r="A29" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>49</v>
@@ -2851,62 +2859,62 @@
       <c r="D29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="20" t="s">
+      <c r="E29" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="18" t="s">
+      <c r="G29" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="17" t="s">
         <v>61</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K29" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L29" s="24" t="s">
+      <c r="K29" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N29" s="24" t="s">
+      <c r="N29" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O29" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P29" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q29" s="24" t="s">
+      <c r="O29" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q29" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>48</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="U29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="24" t="s">
-        <v>76</v>
+      <c r="A30" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>70</v>
@@ -2917,65 +2925,65 @@
       <c r="D30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="20" t="s">
+      <c r="E30" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="18" t="s">
+      <c r="G30" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="17" t="s">
         <v>61</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K30" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L30" s="24" t="s">
+      <c r="K30" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L30" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O30" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P30" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q30" s="24" t="s">
+      <c r="O30" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q30" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S30" s="15" t="s">
-        <v>78</v>
+      <c r="S30" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="T30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="U30" s="2">
-        <v>19240101</v>
+        <v>1</v>
       </c>
       <c r="V30" s="2">
-        <v>20240101</v>
+        <v>99999999</v>
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="24" t="s">
-        <v>77</v>
+      <c r="A31" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>49</v>
@@ -2983,199 +2991,265 @@
       <c r="D31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="20" t="s">
+      <c r="E31" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="18" t="s">
+      <c r="G31" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="17" t="s">
         <v>61</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K31" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L31" s="24" t="s">
+      <c r="K31" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N31" s="24" t="s">
+      <c r="N31" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O31" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P31" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q31" s="24" t="s">
+      <c r="O31" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="23" t="s">
         <v>21</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="S31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U31" s="2">
+        <v>19240101</v>
+      </c>
+      <c r="V31" s="2">
+        <v>20240101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="O32" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q32" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="T32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U31" s="2">
-        <v>0</v>
-      </c>
-      <c r="V31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="21"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="3" t="s">
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="20"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="1"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="21"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="18"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="17"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="16"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="13"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="12"/>
       <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="21"/>
-      <c r="B34" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A34" s="20"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="18"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="17"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="16"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="13"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="12"/>
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="21"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="18"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="17"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="16"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="13"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="12"/>
       <c r="R35" s="1"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="21"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="18"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="17"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="16"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="13"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="12"/>
       <c r="R36" s="1"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="21"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="4"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="18"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="17"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="16"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="13"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="12"/>
       <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="20"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R38">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D19 J1:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D20 J1:J1048576">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D1048576 D1 D9:D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:D1048576 D1 D10:D12">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"count_check,duplicate,null_value_check,uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare,schema_check,name_check,column_range_check,column_value_reference_check"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9">
       <formula1>"csv,text,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
   </dataValidations>

--- a/config/Master_Test_Template_june.xlsx
+++ b/config/Master_Test_Template_june.xlsx
@@ -11,14 +11,14 @@
     <sheet name="data_quality_checks" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$V$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$V$33</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="109">
   <si>
     <t>csv</t>
   </si>
@@ -333,18 +333,44 @@
   </si>
   <si>
     <t>CIFF_14</t>
+  </si>
+  <si>
+    <t>CIFF_15</t>
+  </si>
+  <si>
+    <t>CIFF_16</t>
+  </si>
+  <si>
+    <t>Surname,given_name</t>
+  </si>
+  <si>
+    <t>Ident_ifier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -554,42 +580,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -597,19 +642,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -619,20 +651,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -640,25 +675,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -939,13 +974,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1163,10 +1198,10 @@
         <v>21</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>108</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>27</v>
@@ -1360,14 +1395,14 @@
       <c r="O6" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="38" t="s">
         <v>101</v>
       </c>
       <c r="Q6" s="21" t="s">
         <v>21</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>27</v>
@@ -1383,17 +1418,17 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="13" t="s">
-        <v>32</v>
+      <c r="A7" s="37" t="s">
+        <v>105</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
@@ -1404,14 +1439,14 @@
       <c r="G7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>88</v>
+      <c r="H7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>20</v>
@@ -1422,16 +1457,16 @@
       <c r="M7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="34" t="s">
+      <c r="N7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="O7" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q7" s="21" t="s">
         <v>21</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -1451,17 +1486,17 @@
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
+      <c r="A8" s="37" t="s">
+        <v>106</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>20</v>
@@ -1475,38 +1510,38 @@
       <c r="H8" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>81</v>
+      <c r="I8" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="O8" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" s="21" t="s">
         <v>21</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>27</v>
@@ -1519,23 +1554,23 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="13" t="s">
-        <v>34</v>
+      <c r="A9" s="37" t="s">
+        <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>96</v>
+        <v>20</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>20</v>
@@ -1543,91 +1578,91 @@
       <c r="H9" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>81</v>
+      <c r="I9" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="O9" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="21" t="s">
         <v>21</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>27</v>
+      <c r="S9" s="39" t="s">
+        <v>108</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="U9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
+      <c r="A10" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>98</v>
+        <v>20</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>81</v>
+      <c r="H10" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>17</v>
@@ -1655,17 +1690,17 @@
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="13" t="s">
-        <v>36</v>
+      <c r="A11" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>20</v>
@@ -1673,8 +1708,8 @@
       <c r="F11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>44</v>
+      <c r="G11" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="H11" s="15" t="b">
         <v>0</v>
@@ -1723,26 +1758,26 @@
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="1" t="s">
-        <v>37</v>
+      <c r="A12" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>44</v>
+        <v>95</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="H12" s="15" t="b">
         <v>0</v>
@@ -1791,38 +1826,40 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="23" t="s">
-        <v>50</v>
+      <c r="A13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="17" t="s">
-        <v>82</v>
-      </c>
       <c r="J13" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="16" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="3" t="s">
@@ -1837,7 +1874,7 @@
       <c r="P13" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="23" t="s">
+      <c r="Q13" s="12" t="s">
         <v>21</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -1857,38 +1894,40 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="23" t="s">
-        <v>51</v>
+      <c r="A14" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="17" t="s">
-        <v>82</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -1903,7 +1942,7 @@
       <c r="P14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" s="23" t="s">
+      <c r="Q14" s="12" t="s">
         <v>21</v>
       </c>
       <c r="R14" s="1" t="s">
@@ -1923,38 +1962,40 @@
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="23" t="s">
-        <v>52</v>
+      <c r="A15" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="17" t="s">
-        <v>82</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="16" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -1969,7 +2010,7 @@
       <c r="P15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="Q15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="R15" s="1" t="s">
@@ -1990,10 +2031,10 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>81</v>
@@ -2056,10 +2097,10 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>81</v>
@@ -2122,10 +2163,10 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>81</v>
@@ -2188,10 +2229,10 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>81</v>
@@ -2254,10 +2295,10 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>81</v>
@@ -2320,13 +2361,13 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>46</v>
@@ -2334,15 +2375,15 @@
       <c r="E21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="23"/>
+      <c r="F21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="17" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>46</v>
@@ -2350,20 +2391,20 @@
       <c r="K21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="O21" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21" s="25" t="s">
-        <v>17</v>
+      <c r="N21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>22</v>
       </c>
       <c r="Q21" s="23" t="s">
         <v>21</v>
@@ -2386,13 +2427,13 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>46</v>
@@ -2400,15 +2441,15 @@
       <c r="E22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="23"/>
+      <c r="F22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="3"/>
       <c r="I22" s="17" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>46</v>
@@ -2416,20 +2457,20 @@
       <c r="K22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="O22" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="P22" s="25" t="s">
-        <v>17</v>
+      <c r="N22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="34" t="s">
+        <v>22</v>
       </c>
       <c r="Q22" s="23" t="s">
         <v>21</v>
@@ -2452,13 +2493,13 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="23" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>46</v>
@@ -2466,15 +2507,15 @@
       <c r="E23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="23"/>
+      <c r="F23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="17" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>46</v>
@@ -2482,20 +2523,20 @@
       <c r="K23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="O23" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="25" t="s">
-        <v>17</v>
+      <c r="N23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="34" t="s">
+        <v>22</v>
       </c>
       <c r="Q23" s="23" t="s">
         <v>21</v>
@@ -2518,10 +2559,10 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="23" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>49</v>
@@ -2584,10 +2625,10 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>49</v>
@@ -2650,10 +2691,10 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>49</v>
@@ -2716,10 +2757,10 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>49</v>
@@ -2782,10 +2823,10 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>49</v>
@@ -2848,10 +2889,10 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="23" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>49</v>
@@ -2900,7 +2941,7 @@
         <v>48</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="T29" s="2" t="s">
         <v>27</v>
@@ -2914,10 +2955,10 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="23" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>49</v>
@@ -2966,24 +3007,24 @@
         <v>48</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="T30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="U30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="23" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>49</v>
@@ -3031,25 +3072,25 @@
       <c r="R31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S31" s="14" t="s">
-        <v>78</v>
+      <c r="S31" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="U31" s="2">
-        <v>19240101</v>
+        <v>0</v>
       </c>
       <c r="V31" s="2">
-        <v>20240101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>49</v>
@@ -3098,86 +3139,222 @@
         <v>48</v>
       </c>
       <c r="S32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="O33" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q33" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U33" s="2">
+        <v>1</v>
+      </c>
+      <c r="V33" s="2">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="O34" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q34" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S34" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U34" s="2">
+        <v>19240101</v>
+      </c>
+      <c r="V34" s="2">
+        <v>20240101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="O35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q35" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="T35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U32" s="2">
-        <v>0</v>
-      </c>
-      <c r="V32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="20"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="20"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="20"/>
-      <c r="B35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="20"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="15"/>
@@ -3194,7 +3371,7 @@
       <c r="Q36" s="12"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:22">
       <c r="A37" s="20"/>
       <c r="B37" s="4"/>
       <c r="C37" s="3"/>
@@ -3214,9 +3391,11 @@
       <c r="Q37" s="12"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:22">
       <c r="A38" s="20"/>
-      <c r="B38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -3234,22 +3413,82 @@
       <c r="Q38" s="12"/>
       <c r="R38" s="1"/>
     </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="20"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="20"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="20"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="1"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R41">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D20 J1:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D23 J1:J1048576">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:D1048576 D1 D10:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D1048576 D1 D13:D15">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"count_check,duplicate,null_value_check,uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare,schema_check,name_check,column_range_check,column_value_reference_check"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12">
       <formula1>"csv,text,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
   </dataValidations>

--- a/config/Master_Test_Template_june.xlsx
+++ b/config/Master_Test_Template_june.xlsx
@@ -351,12 +351,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -580,62 +587,65 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,27 +658,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -678,6 +688,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,13 +703,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -980,7 +990,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1052,7 +1062,7 @@
       <c r="N1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="35" t="s">
@@ -3474,7 +3484,7 @@
       <c r="R41" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R41">
       <formula1>"Y,N"</formula1>
